--- a/public/Mangalore Refinery & Petrochemicals Ltd_Environment-02-02.xlsx
+++ b/public/Mangalore Refinery & Petrochemicals Ltd_Environment-02-02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="24240" windowHeight="13740"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="24240" windowHeight="13740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Company Information" sheetId="4" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3408" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3409" uniqueCount="762">
   <si>
     <t>Company Name</t>
   </si>
@@ -2608,6 +2608,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Percentile</t>
   </si>
 </sst>
 </file>
@@ -2877,7 +2880,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3037,6 +3040,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3049,7 +3053,9 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -3546,7 +3552,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3567,35 +3573,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="54" t="s">
         <v>611</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="54" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -3773,11 +3779,11 @@
         <v>618</v>
       </c>
       <c r="AC1" s="24"/>
-      <c r="AD1" s="54" t="s">
+      <c r="AD1" s="55" t="s">
         <v>619</v>
       </c>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="57"/>
     </row>
     <row r="2" spans="1:32" s="32" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -16304,10 +16310,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16326,7 +16332,7 @@
     <col min="22" max="16384" width="15.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
@@ -16384,8 +16390,11 @@
       </c>
       <c r="T1" s="17"/>
       <c r="U1" s="18"/>
-    </row>
-    <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="V1" s="58" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>31</v>
       </c>
@@ -16434,8 +16443,11 @@
       <c r="U2" s="14" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="V2" s="6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>31</v>
       </c>
@@ -16469,6 +16481,9 @@
       </c>
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
+      <c r="V3" s="6">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -19083,6 +19098,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005BE819A40291324CBD16147273926174" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a7c4f5845a2c4a25b76c36f95deacf85">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0a282b2a-a7fb-4e44-9f6d-45c7d1be93c8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fc744919c4d1488aa3ad3e956be3f3da" ns2:_="">
     <xsd:import namespace="0a282b2a-a7fb-4e44-9f6d-45c7d1be93c8"/>
@@ -19228,22 +19258,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21198501-51B6-4A10-9C2A-06A6A271C392}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="0a282b2a-a7fb-4e44-9f6d-45c7d1be93c8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E83B1EEB-9C96-49F9-AB7F-36B608592A29}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E98B2C90-B265-45FE-B536-DD5FEE95FC6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19259,28 +19298,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E83B1EEB-9C96-49F9-AB7F-36B608592A29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21198501-51B6-4A10-9C2A-06A6A271C392}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="0a282b2a-a7fb-4e44-9f6d-45c7d1be93c8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>